--- a/dmi/InitialConditions/NIIPGWStorage.xlsx
+++ b/dmi/InitialConditions/NIIPGWStorage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alan\CRSS\CRSS.Offc_Dev\dmi\InitialConditions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CRSS\CRSS.Models\OfficialCRSS_GIT\dmi\InitialConditions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Storage" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>jshirey</author>
-    <author>Alan Butler</author>
+    <author>jkhaya</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B506" authorId="1" shapeId="0">
+    <comment ref="B2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,19 +62,19 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Alan Butler:</t>
+          <t>jkhaya:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-2018 values were copied from 2017. I don't know how these get created and it seems good enough. But they should be updated.</t>
+Found in 'NIIPWaterBalance 76-19 (for USBR) 20210202.xlsx' workbook 'CRSS Monthly' tab column AE.  In Natural Flow model repo.</t>
         </r>
       </text>
     </comment>
@@ -99,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,10 +138,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,7 +183,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,20 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="H505" sqref="H505"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="G525" sqref="G525"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="14.26953125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -478,4132 +484,4228 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>27760</v>
       </c>
       <c r="B2" s="2">
-        <v>13.77352333392203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20.241074387530581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>27791</v>
       </c>
       <c r="B3" s="2">
-        <v>22.995199340210082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33.897702889960854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>27820</v>
       </c>
       <c r="B4" s="2">
-        <v>356.58548180758191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524.3169871468765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>27851</v>
       </c>
       <c r="B5" s="2">
-        <v>779.16586639729985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1148.132267668602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>27881</v>
       </c>
       <c r="B6" s="2">
-        <v>1339.236617368048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1977.528580825126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>27912</v>
       </c>
       <c r="B7" s="2">
-        <v>2495.8442561720713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3687.7774323884023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>27942</v>
       </c>
       <c r="B8" s="2">
-        <v>3864.3632586718495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5719.2009221249045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>27973</v>
       </c>
       <c r="B9" s="2">
-        <v>4592.7226386620023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6820.9982002316901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>28004</v>
       </c>
       <c r="B10" s="2">
-        <v>5489.6253966756249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8152.8759712673209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>28034</v>
       </c>
       <c r="B11" s="2">
-        <v>5715.4671692567044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8501.8371853888057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>28065</v>
       </c>
       <c r="B12" s="2">
-        <v>5684.8587181261883</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8474.012992007305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>28095</v>
       </c>
       <c r="B13" s="2">
-        <v>5653.3993689120516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8445.3554218726294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>28126</v>
       </c>
       <c r="B14" s="2">
-        <v>5622.1141120900129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8416.7947664260482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>28157</v>
       </c>
       <c r="B15" s="2">
-        <v>5594.0128353339596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8391.0852851945256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>28185</v>
       </c>
       <c r="B16" s="2">
-        <v>5613.8357123700707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8437.331881507147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>28216</v>
       </c>
       <c r="B17" s="2">
-        <v>6043.4421334792096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9085.2341705230465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>28246</v>
       </c>
       <c r="B18" s="2">
-        <v>6743.9778674481195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10133.139344897145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>28277</v>
       </c>
       <c r="B19" s="2">
-        <v>8058.9942144698334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12085.552581555283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>28307</v>
       </c>
       <c r="B20" s="2">
-        <v>9005.5925164545697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13501.307192434186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>28338</v>
       </c>
       <c r="B21" s="2">
-        <v>10035.899543601901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15042.987423046116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>28369</v>
       </c>
       <c r="B22" s="2">
-        <v>11330.133451219506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16974.698567640338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>28399</v>
       </c>
       <c r="B23" s="2">
-        <v>11479.678822170037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17229.200865806972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>28430</v>
       </c>
       <c r="B24" s="2">
-        <v>11418.200875080698</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17172.81439236064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>28460</v>
       </c>
       <c r="B25" s="2">
-        <v>11355.013874921666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17114.73905859339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>28491</v>
       </c>
       <c r="B26" s="2">
-        <v>11292.176544297508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17056.860125038424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>28522</v>
       </c>
       <c r="B27" s="2">
-        <v>11235.734328447223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17004.759172428454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>28550</v>
       </c>
       <c r="B28" s="2">
-        <v>11297.352840948595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17129.177971959867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28581</v>
       </c>
       <c r="B29" s="2">
-        <v>11985.931851347506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18173.940650796176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28611</v>
       </c>
       <c r="B30" s="2">
-        <v>12819.030762083044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19434.246234515173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>28642</v>
       </c>
       <c r="B31" s="2">
-        <v>14576.284632616476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22053.926881585121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>28672</v>
       </c>
       <c r="B32" s="2">
-        <v>15443.173189944859</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23371.832883988984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>28703</v>
       </c>
       <c r="B33" s="2">
-        <v>16876.450839675141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25524.676884246357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>28734</v>
       </c>
       <c r="B34" s="2">
-        <v>18283.568456371329</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27641.809717032498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>28764</v>
       </c>
       <c r="B35" s="2">
-        <v>18880.358454077083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28574.040493737521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>28795</v>
       </c>
       <c r="B36" s="2">
-        <v>18779.247116726263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28480.525455628467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>28825</v>
       </c>
       <c r="B37" s="2">
-        <v>18675.324939884835</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28384.209500426736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>28856</v>
       </c>
       <c r="B38" s="2">
-        <v>18571.977856324425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28288.219268261291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>28887</v>
       </c>
       <c r="B39" s="2">
-        <v>18479.148668007958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28201.811619918524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>28915</v>
       </c>
       <c r="B40" s="2">
-        <v>18376.887201197325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28106.438224198573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>28946</v>
       </c>
       <c r="B41" s="2">
-        <v>19046.968363153086</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29143.807924210199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>28976</v>
       </c>
       <c r="B42" s="2">
-        <v>20500.627921726915</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31336.392168029448</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>29007</v>
       </c>
       <c r="B43" s="2">
-        <v>22037.024396622746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33653.010898457163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>29037</v>
       </c>
       <c r="B44" s="2">
-        <v>23910.575480699386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36471.719641126438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>29068</v>
       </c>
       <c r="B45" s="2">
-        <v>26107.642031539464</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39771.559176300994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>29099</v>
       </c>
       <c r="B46" s="2">
-        <v>28673.908374205046</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43618.159161021351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>29129</v>
       </c>
       <c r="B47" s="2">
-        <v>30074.127616552069</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45761.549914127419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>29160</v>
       </c>
       <c r="B48" s="2">
-        <v>29913.069484612199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45611.784847297371</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>29190</v>
       </c>
       <c r="B49" s="2">
-        <v>29747.53402530824</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45457.534089780005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>29221</v>
       </c>
       <c r="B50" s="2">
-        <v>29582.914620048854</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45303.804980259411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>29252</v>
       </c>
       <c r="B51" s="2">
-        <v>29429.76803308112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45160.480220787453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>29281</v>
       </c>
       <c r="B52" s="2">
-        <v>29266.907107990461</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45007.755693404324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>29312</v>
       </c>
       <c r="B53" s="2">
-        <v>30343.317145464483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46672.643417985222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>29342</v>
       </c>
       <c r="B54" s="2">
-        <v>33101.859588773143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50815.423666234667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>29373</v>
       </c>
       <c r="B55" s="2">
-        <v>36146.429664401963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55383.822977682779</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>29403</v>
       </c>
       <c r="B56" s="2">
-        <v>38510.598097381022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58964.778958388219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>29434</v>
       </c>
       <c r="B57" s="2">
-        <v>41609.76835398539</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63632.983391949587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>29465</v>
       </c>
       <c r="B58" s="2">
-        <v>44511.199129999506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68016.03972841108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>29495</v>
       </c>
       <c r="B59" s="2">
-        <v>46062.407081416139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70427.603998983745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>29526</v>
       </c>
       <c r="B60" s="2">
-        <v>45815.725770098441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70197.113667266822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>29556</v>
       </c>
       <c r="B61" s="2">
-        <v>45562.186854187494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69959.719800857973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>29587</v>
       </c>
       <c r="B62" s="2">
-        <v>45310.050993249497</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69723.12875731269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>29618</v>
       </c>
       <c r="B63" s="2">
-        <v>45083.575639422343</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69510.156299276816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>29646</v>
       </c>
       <c r="B64" s="2">
-        <v>44834.088357471031</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69275.085597698053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>29677</v>
       </c>
       <c r="B65" s="2">
-        <v>45409.610055344281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69981.663239660775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>29707</v>
       </c>
       <c r="B66" s="2">
-        <v>47130.753456569248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72001.99847368995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>29738</v>
       </c>
       <c r="B67" s="2">
-        <v>50119.4433344508</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75475.044497980634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>29768</v>
       </c>
       <c r="B68" s="2">
-        <v>53572.3897229758</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79488.27831929212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>29799</v>
       </c>
       <c r="B69" s="2">
-        <v>56950.635974889236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83424.327867422893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>29830</v>
       </c>
       <c r="B70" s="2">
-        <v>58389.737286108226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85147.018361676586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>29860</v>
       </c>
       <c r="B71" s="2">
-        <v>58075.742281455874</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84869.510439329766</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>29891</v>
       </c>
       <c r="B72" s="2">
-        <v>57764.725094785274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84591.755688307763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>29921</v>
       </c>
       <c r="B73" s="2">
-        <v>57445.061801620017</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84305.681761616899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>29952</v>
       </c>
       <c r="B74" s="2">
-        <v>57127.167488066967</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84020.575284896375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>29983</v>
       </c>
       <c r="B75" s="2">
-        <v>56841.626086404664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83763.930628195769</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>30011</v>
       </c>
       <c r="B76" s="2">
-        <v>57161.316973772846</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84318.561342334389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>30042</v>
       </c>
       <c r="B77" s="2">
-        <v>57777.691045761021</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85261.320942581893</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>30072</v>
       </c>
       <c r="B78" s="2">
-        <v>59318.709219119533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87431.23220795035</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>30103</v>
       </c>
       <c r="B79" s="2">
-        <v>63353.136963877761</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92894.674701285607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>30133</v>
       </c>
       <c r="B80" s="2">
-        <v>68045.980832296918</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99243.423803482976</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>30164</v>
       </c>
       <c r="B81" s="2">
-        <v>71755.014363763272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104305.29490878849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>30195</v>
       </c>
       <c r="B82" s="2">
-        <v>73101.391094716993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106250.30371159343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>30225</v>
       </c>
       <c r="B83" s="2">
-        <v>73122.840016547081</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106453.75331745333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>30256</v>
       </c>
       <c r="B84" s="2">
-        <v>72731.24002849884</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106105.3592287519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>30286</v>
       </c>
       <c r="B85" s="2">
-        <v>72328.753776459154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105746.53020917985</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>30317</v>
       </c>
       <c r="B86" s="2">
-        <v>71928.494836686077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105388.91468406485</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>30348</v>
       </c>
       <c r="B87" s="2">
-        <v>71568.971266058885</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105066.99946582898</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>30376</v>
       </c>
       <c r="B88" s="2">
-        <v>71172.916874631977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104711.68199005077</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>30407</v>
       </c>
       <c r="B89" s="2">
-        <v>71813.157475340791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105887.06588368324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>30437</v>
       </c>
       <c r="B90" s="2">
-        <v>74136.437509345604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109572.65775881438</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>30468</v>
       </c>
       <c r="B91" s="2">
-        <v>77481.493079125154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114775.81567140049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>30498</v>
       </c>
       <c r="B92" s="2">
-        <v>82508.362286052361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122496.24122254954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>30529</v>
       </c>
       <c r="B93" s="2">
-        <v>86988.665984563209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129419.55727130675</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>30560</v>
       </c>
       <c r="B94" s="2">
-        <v>89683.584030567436</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133693.77753232175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>30590</v>
       </c>
       <c r="B95" s="2">
-        <v>89477.691084228718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133673.27162215079</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>30621</v>
       </c>
       <c r="B96" s="2">
-        <v>88998.504789614904</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133235.79547688365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>30651</v>
       </c>
       <c r="B97" s="2">
-        <v>88505.997379925859</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132785.21625816764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>30682</v>
       </c>
       <c r="B98" s="2">
-        <v>88016.215449155512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132336.1608163887</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>30713</v>
       </c>
       <c r="B99" s="2">
-        <v>87560.567884776581</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131917.49734150583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>30742</v>
       </c>
       <c r="B100" s="2">
-        <v>87408.905656161485</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131974.03668846228</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>30773</v>
       </c>
       <c r="B101" s="2">
-        <v>87845.868310979029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132908.77640731295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>30803</v>
       </c>
       <c r="B102" s="2">
-        <v>91068.799940328026</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138059.98149241318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>30834</v>
       </c>
       <c r="B103" s="2">
-        <v>95427.879365336819</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144926.7929116227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>30864</v>
       </c>
       <c r="B104" s="2">
-        <v>99722.185169489894</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151718.48590714388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>30895</v>
       </c>
       <c r="B105" s="2">
-        <v>102731.53669466845</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>156582.81460006844</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>30926</v>
       </c>
       <c r="B106" s="2">
-        <v>104449.85382884686</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159495.76884593061</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>30956</v>
       </c>
       <c r="B107" s="2">
-        <v>104577.11121766308</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160021.3414828555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>30987</v>
       </c>
       <c r="B108" s="2">
-        <v>104017.06191578026</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159497.63529400513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>31017</v>
       </c>
       <c r="B109" s="2">
-        <v>103441.44355175598</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158958.24331123807</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>31048</v>
       </c>
       <c r="B110" s="2">
-        <v>102869.01059303829</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158420.67545401704</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>31079</v>
       </c>
       <c r="B111" s="2">
-        <v>102354.83559077712</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>157936.7723180493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>31107</v>
       </c>
       <c r="B112" s="2">
-        <v>102398.2675807374</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158267.00322735371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>31138</v>
       </c>
       <c r="B113" s="2">
-        <v>103165.34124782818</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159613.43512477595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>31168</v>
       </c>
       <c r="B114" s="2">
-        <v>105118.80773684321</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162651.44909586414</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>31199</v>
       </c>
       <c r="B115" s="2">
-        <v>109404.13766229214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168990.61396643694</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>31229</v>
       </c>
       <c r="B116" s="2">
-        <v>114213.3619763766</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176093.32019511404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>31260</v>
       </c>
       <c r="B117" s="2">
-        <v>117969.09835487774</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181716.6151363313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>31291</v>
       </c>
       <c r="B118" s="2">
-        <v>119824.86148739269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184647.49035032646</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>31321</v>
       </c>
       <c r="B119" s="2">
-        <v>119448.02155367675</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184428.75878185328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>31352</v>
       </c>
       <c r="B120" s="2">
-        <v>118808.33299942721</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183825.1737757471</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>31382</v>
       </c>
       <c r="B121" s="2">
-        <v>118150.86145568226</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183203.51048410876</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>31413</v>
       </c>
       <c r="B122" s="2">
-        <v>117497.02828325286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182583.94954461421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>31444</v>
       </c>
       <c r="B123" s="2">
-        <v>116909.73737382411</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182026.23859237391</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>31472</v>
       </c>
       <c r="B124" s="2">
-        <v>117663.35722059422</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183739.93751153629</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>31503</v>
       </c>
       <c r="B125" s="2">
-        <v>119758.55842061772</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187671.04065073715</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>31533</v>
       </c>
       <c r="B126" s="2">
-        <v>122294.93666641624</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192356.73054097008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>31564</v>
       </c>
       <c r="B127" s="2">
-        <v>125822.17453512398</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198682.46932178549</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>31594</v>
       </c>
       <c r="B128" s="2">
-        <v>127979.33178031641</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202756.05241237671</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>31625</v>
       </c>
       <c r="B129" s="2">
-        <v>132114.41082394111</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210125.14599334635</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>31656</v>
       </c>
       <c r="B130" s="2">
-        <v>132618.29531618051</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211452.12407114435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>31686</v>
       </c>
       <c r="B131" s="2">
-        <v>132177.4617911778</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211224.41367588384</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>31717</v>
       </c>
       <c r="B132" s="2">
-        <v>131469.60235292351</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210533.13380250396</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>31747</v>
       </c>
       <c r="B133" s="2">
-        <v>130742.06481214405</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209821.14904943493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>31778</v>
       </c>
       <c r="B134" s="2">
-        <v>130018.55337978638</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209111.57209925872</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>31809</v>
       </c>
       <c r="B135" s="2">
-        <v>129368.67554395767</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208472.83132116284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>31837</v>
       </c>
       <c r="B136" s="2">
-        <v>128949.97368971763</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208253.29622807121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>31868</v>
       </c>
       <c r="B137" s="2">
-        <v>129760.87863936574</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>210024.35975851631</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>31898</v>
       </c>
       <c r="B138" s="2">
-        <v>131770.78432799681</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213770.17604893816</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>31929</v>
       </c>
       <c r="B139" s="2">
-        <v>135708.10773076571</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220654.7652866253</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>31959</v>
       </c>
       <c r="B140" s="2">
-        <v>140473.1619686498</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228918.83841723565</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>31990</v>
       </c>
       <c r="B141" s="2">
-        <v>143886.26978735707</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234989.67587702064</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>32021</v>
       </c>
       <c r="B142" s="2">
-        <v>145216.91439583158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237652.8768791522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>32051</v>
       </c>
       <c r="B143" s="2">
-        <v>145096.50077023299</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237965.1634450423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>32082</v>
       </c>
       <c r="B144" s="2">
-        <v>144319.45507623904</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237186.36839388154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>32112</v>
       </c>
       <c r="B145" s="2">
-        <v>143520.80793991516</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236384.24725084723</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>32143</v>
       </c>
       <c r="B146" s="2">
-        <v>142726.58042427251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235584.83873557672</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>32174</v>
       </c>
       <c r="B147" s="2">
-        <v>141987.70499761865</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234839.53400098038</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>32203</v>
       </c>
       <c r="B148" s="2">
-        <v>141447.89356319615</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234427.37231747172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>32234</v>
       </c>
       <c r="B149" s="2">
-        <v>142584.66184055814</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236602.65975526563</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>32264</v>
       </c>
       <c r="B150" s="2">
-        <v>144746.79965579376</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240386.78731988824</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>32295</v>
       </c>
       <c r="B151" s="2">
-        <v>148174.04487267617</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246127.9669088404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>32325</v>
       </c>
       <c r="B152" s="2">
-        <v>152265.5725472295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252924.98042364037</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>32356</v>
       </c>
       <c r="B153" s="2">
-        <v>154876.12416912775</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257433.67894383625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>32387</v>
       </c>
       <c r="B154" s="2">
-        <v>156312.36657214476</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260110.57398468597</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>32417</v>
       </c>
       <c r="B155" s="2">
-        <v>156886.27037693511</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261466.0963788201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>32448</v>
       </c>
       <c r="B156" s="2">
-        <v>156068.15691098705</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260644.6732921431</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>32478</v>
       </c>
       <c r="B157" s="2">
-        <v>155204.49382050172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259763.22043006416</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>32509</v>
       </c>
       <c r="B158" s="2">
-        <v>154345.61014145194</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258884.74848118881</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>32540</v>
       </c>
       <c r="B159" s="2">
-        <v>153574.1372363859</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258093.97327911854</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>32568</v>
       </c>
       <c r="B160" s="2">
-        <v>153641.29371282153</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258631.32182665839</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>32599</v>
       </c>
       <c r="B161" s="2">
-        <v>155545.97698876559</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261979.1814331637</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>32629</v>
       </c>
       <c r="B162" s="2">
-        <v>158891.77036447515</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>267562.00602008647</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>32660</v>
       </c>
       <c r="B163" s="2">
-        <v>163864.5570533874</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275641.95764623932</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>32690</v>
       </c>
       <c r="B164" s="2">
-        <v>168460.52107919301</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283171.85989144526</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>32721</v>
       </c>
       <c r="B165" s="2">
-        <v>172304.87159557821</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>289559.58952752087</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>32752</v>
       </c>
       <c r="B166" s="2">
-        <v>174082.55526623316</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292764.63351635041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>32782</v>
       </c>
       <c r="B167" s="2">
-        <v>174784.30539212501</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>294335.12502058857</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>32813</v>
       </c>
       <c r="B168" s="2">
-        <v>173848.27046942388</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293371.84646573506</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>32843</v>
       </c>
       <c r="B169" s="2">
-        <v>172886.21429139911</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+        <v>292379.71625852853</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>32874</v>
       </c>
       <c r="B170" s="2">
-        <v>171929.4820207516</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291390.94125516963</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>32905</v>
       </c>
       <c r="B171" s="2">
-        <v>171070.11882383598</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290500.87441344041</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>32933</v>
       </c>
       <c r="B172" s="2">
-        <v>170691.46999297844</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+        <v>290382.39413246384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>32964</v>
       </c>
       <c r="B173" s="2">
-        <v>172165.81542810015</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293064.74247915653</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>32994</v>
       </c>
       <c r="B174" s="2">
-        <v>174109.49236692666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+        <v>296478.91613291105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>33025</v>
       </c>
       <c r="B175" s="2">
-        <v>178575.79462750809</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+        <v>303719.71903193748</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>33055</v>
       </c>
       <c r="B176" s="2">
-        <v>182722.77783741301</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+        <v>310502.89180958155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>33086</v>
       </c>
       <c r="B177" s="2">
-        <v>186113.49646492803</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316147.80100354296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>33117</v>
       </c>
       <c r="B178" s="2">
-        <v>187117.43526373996</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318155.98404794704</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>33147</v>
       </c>
       <c r="B179" s="2">
-        <v>187020.87189737873</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+        <v>318508.07730003895</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>33178</v>
       </c>
       <c r="B180" s="2">
-        <v>186019.30561271019</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>317465.68726796482</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>33208</v>
       </c>
       <c r="B181" s="2">
-        <v>184989.89633694716</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>316392.07607491902</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>33239</v>
       </c>
       <c r="B182" s="2">
-        <v>183966.18369279738</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315322.09563958994</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>33270</v>
       </c>
       <c r="B183" s="2">
-        <v>183046.65688515233</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314358.93000175501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>33298</v>
       </c>
       <c r="B184" s="2">
-        <v>182558.41935809105</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>314076.32290666946</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>33329</v>
       </c>
       <c r="B185" s="2">
-        <v>183441.33843799331</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+        <v>315815.9697529109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>33359</v>
       </c>
       <c r="B186" s="2">
-        <v>185479.60291622282</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319289.73267918988</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>33390</v>
       </c>
       <c r="B187" s="2">
-        <v>190510.13283262565</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+        <v>327204.95630760264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>33420</v>
       </c>
       <c r="B188" s="2">
-        <v>193905.54960673754</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332717.08765350975</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>33451</v>
       </c>
       <c r="B189" s="2">
-        <v>197844.06991158254</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339046.36700255709</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>33482</v>
       </c>
       <c r="B190" s="2">
-        <v>199970.70581243635</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342676.02517808595</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>33512</v>
       </c>
       <c r="B191" s="2">
-        <v>200108.68658705577</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343368.43237550079</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>33543</v>
       </c>
       <c r="B192" s="2">
-        <v>199037.03018998328</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>342244.68118441256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>33573</v>
       </c>
       <c r="B193" s="2">
-        <v>197935.58233529408</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>341087.27194235538</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>33604</v>
       </c>
       <c r="B194" s="2">
-        <v>196840.22976536391</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339933.77684777003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>33635</v>
       </c>
       <c r="B195" s="2">
-        <v>195821.21558932055</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338858.35003043467</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>33664</v>
       </c>
       <c r="B196" s="2">
-        <v>195185.61805339946</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+        <v>338361.18790131522</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>33695</v>
       </c>
       <c r="B197" s="2">
-        <v>196596.32826933826</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+        <v>340810.18269408855</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>33725</v>
       </c>
       <c r="B198" s="2">
-        <v>198246.49703653413</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>343622.48395832104</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>33756</v>
       </c>
       <c r="B199" s="2">
-        <v>201582.38405967972</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+        <v>348865.70564541552</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>33786</v>
       </c>
       <c r="B200" s="2">
-        <v>205743.93535530663</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355327.27048692794</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>33817</v>
       </c>
       <c r="B201" s="2">
-        <v>209334.83509635733</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+        <v>360974.01163311675</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="6">
         <v>33848</v>
       </c>
       <c r="B202" s="2">
-        <v>211051.44694357459</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363901.67817977385</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="6">
         <v>33878</v>
       </c>
       <c r="B203" s="2">
-        <v>211277.45963898068</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364689.50273635279</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="6">
         <v>33909</v>
       </c>
       <c r="B204" s="2">
-        <v>210145.99031078219</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363495.97349942755</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="6">
         <v>33939</v>
       </c>
       <c r="B205" s="2">
-        <v>208983.06675842404</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362266.69625332736</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="6">
         <v>33970</v>
       </c>
       <c r="B206" s="2">
-        <v>207826.57869021018</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361041.57619921264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="6">
         <v>34001</v>
       </c>
       <c r="B207" s="2">
-        <v>206787.78935071983</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359938.7583350871</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="6">
         <v>34029</v>
       </c>
       <c r="B208" s="2">
-        <v>205975.34182175386</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>359200.4808621924</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="6">
         <v>34060</v>
       </c>
       <c r="B209" s="2">
-        <v>207145.72838568228</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361305.85963953141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="6">
         <v>34090</v>
       </c>
       <c r="B210" s="2">
-        <v>209865.95123241132</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365663.98851331347</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="6">
         <v>34121</v>
       </c>
       <c r="B211" s="2">
-        <v>214151.88275139802</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372274.47972574487</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="6">
         <v>34151</v>
       </c>
       <c r="B212" s="2">
-        <v>219438.68756089723</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>380355.42858416791</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="6">
         <v>34182</v>
       </c>
       <c r="B213" s="2">
-        <v>222920.61291774813</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385846.560078596</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="6">
         <v>34213</v>
       </c>
       <c r="B214" s="2">
-        <v>225311.22516408676</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389756.66468805436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="6">
         <v>34243</v>
       </c>
       <c r="B215" s="2">
-        <v>225060.05534543755</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389875.48831856728</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="6">
         <v>34274</v>
       </c>
       <c r="B216" s="2">
-        <v>223854.77509424015</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388599.53222282761</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="6">
         <v>34304</v>
       </c>
       <c r="B217" s="2">
-        <v>222615.9887158756</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+        <v>387285.35930859187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="6">
         <v>34335</v>
       </c>
       <c r="B218" s="2">
-        <v>221384.05763774121</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385975.63068804488</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="6">
         <v>34366</v>
       </c>
       <c r="B219" s="2">
-        <v>220277.50331511049</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+        <v>384796.65062397317</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="6">
         <v>34394</v>
       </c>
       <c r="B220" s="2">
-        <v>219390.4052726583</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383957.27840450051</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="6">
         <v>34425</v>
       </c>
       <c r="B221" s="2">
-        <v>220206.84087617902</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385472.33124169195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="6">
         <v>34455</v>
       </c>
       <c r="B222" s="2">
-        <v>222639.05515675581</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>389250.07440441684</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="6">
         <v>34486</v>
       </c>
       <c r="B223" s="2">
-        <v>227337.82554283086</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396175.60084749426</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="6">
         <v>34516</v>
       </c>
       <c r="B224" s="2">
-        <v>232949.9314275388</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+        <v>404397.96589859546</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="6">
         <v>34547</v>
       </c>
       <c r="B225" s="2">
-        <v>238016.54776956121</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411876.51734338998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="6">
         <v>34578</v>
       </c>
       <c r="B226" s="2">
-        <v>240508.85634429994</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415771.5773492427</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="6">
         <v>34608</v>
       </c>
       <c r="B227" s="2">
-        <v>240339.53066052098</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+        <v>415982.30366609572</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="6">
         <v>34639</v>
       </c>
       <c r="B228" s="2">
-        <v>239052.42313963035</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414620.90708696813</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="6">
         <v>34669</v>
       </c>
       <c r="B229" s="2">
-        <v>237729.53473854199</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413218.73461740097</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="6">
         <v>34700</v>
       </c>
       <c r="B230" s="2">
-        <v>236413.96704852927</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411821.30404000758</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="6">
         <v>34731</v>
       </c>
       <c r="B231" s="2">
-        <v>235232.28802448726</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410563.37719483947</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="6">
         <v>34759</v>
       </c>
       <c r="B232" s="2">
-        <v>234262.4319368625</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409616.10607591708</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="6">
         <v>34790</v>
       </c>
       <c r="B233" s="2">
-        <v>234683.92478756228</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410503.50091460941</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="6">
         <v>34820</v>
       </c>
       <c r="B234" s="2">
-        <v>237484.07893732542</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414563.81987011724</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="6">
         <v>34851</v>
       </c>
       <c r="B235" s="2">
-        <v>241688.48354249989</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+        <v>420486.52772756916</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="6">
         <v>34881</v>
       </c>
       <c r="B236" s="2">
-        <v>247221.17454922243</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+        <v>428196.93491811136</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="6">
         <v>34912</v>
       </c>
       <c r="B237" s="2">
-        <v>252490.9237952382</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435572.44124844734</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="6">
         <v>34943</v>
       </c>
       <c r="B238" s="2">
-        <v>255187.82501548287</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439529.32167230372</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="6">
         <v>34973</v>
       </c>
       <c r="B239" s="2">
-        <v>254804.51076910555</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439410.56999724073</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="6">
         <v>35004</v>
       </c>
       <c r="B240" s="2">
-        <v>253439.93790310033</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+        <v>437972.49909481377</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="6">
         <v>35034</v>
       </c>
       <c r="B241" s="2">
-        <v>252037.43066296779</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+        <v>436491.35578978143</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="6">
         <v>35065</v>
       </c>
       <c r="B242" s="2">
-        <v>250642.68473533751</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>435015.22144192015</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="6">
         <v>35096</v>
       </c>
       <c r="B243" s="2">
-        <v>249345.14281938199</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433638.9915202398</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="6">
         <v>35125</v>
       </c>
       <c r="B244" s="2">
-        <v>248346.97164842251</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432650.52022892196</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="6">
         <v>35156</v>
       </c>
       <c r="B245" s="2">
-        <v>249174.28014010942</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+        <v>433936.40766153543</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="6">
         <v>35186</v>
       </c>
       <c r="B246" s="2">
-        <v>252773.76048352849</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438703.91646021826</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="6">
         <v>35217</v>
       </c>
       <c r="B247" s="2">
-        <v>257974.9325785652</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+        <v>445477.57856483961</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="6">
         <v>35247</v>
       </c>
       <c r="B248" s="2">
-        <v>263268.14480624674</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+        <v>452388.30819527787</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="6">
         <v>35278</v>
       </c>
       <c r="B249" s="2">
-        <v>268216.76748889469</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458880.78348627919</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="6">
         <v>35309</v>
       </c>
       <c r="B250" s="2">
-        <v>270480.96423590911</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+        <v>462013.67728499736</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="6">
         <v>35339</v>
       </c>
       <c r="B251" s="2">
-        <v>270129.18177469861</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>461885.28172816994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="6">
         <v>35370</v>
       </c>
       <c r="B252" s="2">
-        <v>268682.53959927824</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+        <v>460373.65722647274</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="6">
         <v>35400</v>
       </c>
       <c r="B253" s="2">
-        <v>267195.68156812899</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458816.75728041789</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="6">
         <v>35431</v>
       </c>
       <c r="B254" s="2">
-        <v>265717.05163698242</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>457265.12248671043</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="6">
         <v>35462</v>
       </c>
       <c r="B255" s="2">
-        <v>264388.90563034121</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455868.38543767412</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="6">
         <v>35490</v>
       </c>
       <c r="B256" s="2">
-        <v>263357.2678389877</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>454850.09734477615</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="6">
         <v>35521</v>
       </c>
       <c r="B257" s="2">
-        <v>263307.64950677921</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>455012.14397361816</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="6">
         <v>35551</v>
       </c>
       <c r="B258" s="2">
-        <v>265833.24103673722</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>458304.53732384229</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="6">
         <v>35582</v>
       </c>
       <c r="B259" s="2">
-        <v>270350.47432142537</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>464011.11439222883</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="6">
         <v>35612</v>
       </c>
       <c r="B260" s="2">
-        <v>275807.52622552076</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470876.31624714209</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="6">
         <v>35643</v>
       </c>
       <c r="B261" s="2">
-        <v>279043.89138861938</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475061.16233979416</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="6">
         <v>35674</v>
       </c>
       <c r="B262" s="2">
-        <v>279955.72556144861</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>476425.24359641067</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="6">
         <v>35704</v>
       </c>
       <c r="B263" s="2">
-        <v>278589.02369655023</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>475035.488347315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="6">
         <v>35735</v>
       </c>
       <c r="B264" s="2">
-        <v>277097.07592311507</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>473480.82680738723</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="6">
         <v>35765</v>
       </c>
       <c r="B265" s="2">
-        <v>275563.65282327862</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>471879.60079859366</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="6">
         <v>35796</v>
       </c>
       <c r="B266" s="2">
-        <v>274038.7155091376</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>470283.7898448268</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="6">
         <v>35827</v>
       </c>
       <c r="B267" s="2">
-        <v>272668.97493951174</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468847.28668607876</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="6">
         <v>35855</v>
       </c>
       <c r="B268" s="2">
-        <v>271641.30002362333</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>467863.01463249023</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="6">
         <v>35886</v>
       </c>
       <c r="B269" s="2">
-        <v>271796.23671628756</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>468343.01850615034</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="6">
         <v>35916</v>
       </c>
       <c r="B270" s="2">
-        <v>274639.9347299214</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>472191.45905705483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="6">
         <v>35947</v>
       </c>
       <c r="B271" s="2">
-        <v>279757.19454706454</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>478877.47813620779</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="6">
         <v>35977</v>
       </c>
       <c r="B272" s="2">
-        <v>284050.35212119453</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>484556.34736825922</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="6">
         <v>36008</v>
       </c>
       <c r="B273" s="2">
-        <v>287788.724453284</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489552.52572201466</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="6">
         <v>36039</v>
       </c>
       <c r="B274" s="2">
-        <v>289184.75420024269</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491620.26068334939</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="6">
         <v>36069</v>
       </c>
       <c r="B275" s="2">
-        <v>287916.33141843166</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>490372.36914443853</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="6">
         <v>36100</v>
       </c>
       <c r="B276" s="2">
-        <v>286374.43244518555</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488767.51417832973</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="6">
         <v>36130</v>
       </c>
       <c r="B277" s="2">
-        <v>284789.66952969437</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>487114.591374184</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="6">
         <v>36161</v>
       </c>
       <c r="B278" s="2">
-        <v>283213.67650848761</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485467.25845422084</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="6">
         <v>36192</v>
       </c>
       <c r="B279" s="2">
-        <v>281798.07630080951</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483984.37670218694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="6">
         <v>36220</v>
       </c>
       <c r="B280" s="2">
-        <v>280717.12421631359</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482863.60736563831</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="6">
         <v>36251</v>
       </c>
       <c r="B281" s="2">
-        <v>280447.53484526247</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+        <v>482613.75311483949</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="6">
         <v>36281</v>
       </c>
       <c r="B282" s="2">
-        <v>281210.49458500382</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>483477.95195518836</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="6">
         <v>36312</v>
       </c>
       <c r="B283" s="2">
-        <v>285547.10068688617</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488196.05222594534</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="6">
         <v>36342</v>
       </c>
       <c r="B284" s="2">
-        <v>289176.23908989987</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492162.56369514839</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="6">
         <v>36373</v>
       </c>
       <c r="B285" s="2">
-        <v>290460.43804947846</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493608.63982747227</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="6">
         <v>36404</v>
       </c>
       <c r="B286" s="2">
-        <v>290828.60685308836</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494067.61758722889</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="6">
         <v>36434</v>
       </c>
       <c r="B287" s="2">
-        <v>289927.41695826611</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493160.48573409498</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="6">
         <v>36465</v>
       </c>
       <c r="B288" s="2">
-        <v>288374.7478744337</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491546.50602312584</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="6">
         <v>36495</v>
       </c>
       <c r="B289" s="2">
-        <v>286778.91544521361</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>489884.18517418468</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="6">
         <v>36526</v>
       </c>
       <c r="B290" s="2">
-        <v>285191.91416768386</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488227.48599190364</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="6">
         <v>36557</v>
       </c>
       <c r="B291" s="2">
-        <v>283715.51575168816</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>486682.91182141443</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="6">
         <v>36586</v>
       </c>
       <c r="B292" s="2">
-        <v>282498.09440510557</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485406.68237265974</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="6">
         <v>36617</v>
       </c>
       <c r="B293" s="2">
-        <v>282672.19071948598</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>485586.46318481455</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="6">
         <v>36647</v>
       </c>
       <c r="B294" s="2">
-        <v>284984.69102996722</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>488008.14891128911</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="6">
         <v>36678</v>
       </c>
       <c r="B295" s="2">
-        <v>289209.09757282992</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492439.13464669388</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="6">
         <v>36708</v>
       </c>
       <c r="B296" s="2">
-        <v>292758.87868392566</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496172.55226325383</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="6">
         <v>36739</v>
       </c>
       <c r="B297" s="2">
-        <v>295595.3633635118</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499166.21931539819</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="6">
         <v>36770</v>
       </c>
       <c r="B298" s="2">
-        <v>296902.42186587758</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500562.12806075474</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="6">
         <v>36800</v>
       </c>
       <c r="B299" s="2">
-        <v>295617.99976766686</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499245.22396681277</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="6">
         <v>36831</v>
       </c>
       <c r="B300" s="2">
-        <v>294034.85549770051</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497611.33056782873</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="6">
         <v>36861</v>
       </c>
       <c r="B301" s="2">
-        <v>292407.70068895636</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495928.4995857419</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="6">
         <v>36892</v>
       </c>
       <c r="B302" s="2">
-        <v>290789.55036632024</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494251.35963185376</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="6">
         <v>36923</v>
       </c>
       <c r="B303" s="2">
-        <v>289336.08331287856</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492741.64644450159</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="6">
         <v>36951</v>
       </c>
       <c r="B304" s="2">
-        <v>288108.80168744625</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491422.1946672083</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="6">
         <v>36982</v>
       </c>
       <c r="B305" s="2">
-        <v>288437.71394583804</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+        <v>491550.76693542121</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="6">
         <v>37012</v>
       </c>
       <c r="B306" s="2">
-        <v>290140.15791699052</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>492949.19192976743</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="6">
         <v>37043</v>
       </c>
       <c r="B307" s="2">
-        <v>293690.27225755242</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496071.78141815326</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="6">
         <v>37073</v>
       </c>
       <c r="B308" s="2">
-        <v>297081.33741636772</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499048.74250788166</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="6">
         <v>37104</v>
       </c>
       <c r="B309" s="2">
-        <v>299199.77248968219</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+        <v>500852.18817689701</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="6">
         <v>37135</v>
       </c>
       <c r="B310" s="2">
-        <v>300533.81958749075</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501937.66617733153</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="6">
         <v>37165</v>
       </c>
       <c r="B311" s="2">
-        <v>299840.14345764887</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+        <v>501139.74073723413</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="6">
         <v>37196</v>
       </c>
       <c r="B312" s="2">
-        <v>298234.38803885184</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+        <v>499499.64710177941</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="6">
         <v>37226</v>
       </c>
       <c r="B313" s="2">
-        <v>296583.99350379274</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+        <v>497810.43017674447</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="6">
         <v>37257</v>
       </c>
       <c r="B314" s="2">
-        <v>294942.73206079344</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+        <v>496126.92587600544</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="6">
         <v>37288</v>
       </c>
       <c r="B315" s="2">
-        <v>293468.50596442097</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+        <v>494611.48368652235</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="6">
         <v>37316</v>
       </c>
       <c r="B316" s="2">
-        <v>292503.94889333163</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>493630.33228730987</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="6">
         <v>37347</v>
       </c>
       <c r="B317" s="2">
-        <v>294265.97666217096</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+        <v>495505.18134328537</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="6">
         <v>37377</v>
       </c>
       <c r="B318" s="2">
-        <v>296940.79036434536</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+        <v>498341.99592830584</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="6">
         <v>37408</v>
       </c>
       <c r="B319" s="2">
-        <v>301406.01897426503</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+        <v>503061.00432052254</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="6">
         <v>37438</v>
       </c>
       <c r="B320" s="2">
-        <v>306536.78834944282</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+        <v>508489.09386755672</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="6">
         <v>37469</v>
       </c>
       <c r="B321" s="2">
-        <v>310939.05108815327</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513164.66514186695</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="6">
         <v>37500</v>
       </c>
       <c r="B322" s="2">
-        <v>311915.33532635838</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514255.15596787707</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="6">
         <v>37530</v>
       </c>
       <c r="B323" s="2">
-        <v>311984.57313490368</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+        <v>514398.69070938119</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="6">
         <v>37561</v>
       </c>
       <c r="B324" s="2">
-        <v>310422.14228677389</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512828.83653720905</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="6">
         <v>37591</v>
       </c>
       <c r="B325" s="2">
-        <v>308704.30213238939</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+        <v>511094.54271868285</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="6">
         <v>37622</v>
       </c>
       <c r="B326" s="2">
-        <v>306995.96830630442</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509366.11396630481</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="6">
         <v>37653</v>
       </c>
       <c r="B327" s="2">
-        <v>305544.30331402703</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507883.2795946722</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="6">
         <v>37681</v>
       </c>
       <c r="B328" s="2">
-        <v>304464.62740679068</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+        <v>506704.84777442052</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="6">
         <v>37712</v>
       </c>
       <c r="B329" s="2">
-        <v>305492.0255938106</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+        <v>507391.19276196539</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="6">
         <v>37742</v>
       </c>
       <c r="B330" s="2">
-        <v>308184.03731254488</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+        <v>509541.31881655619</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="6">
         <v>37773</v>
       </c>
       <c r="B331" s="2">
-        <v>312452.31240466033</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513094.85258599336</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="6">
         <v>37803</v>
       </c>
       <c r="B332" s="2">
-        <v>317529.91170047049</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+        <v>517364.08500246989</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="6">
         <v>37834</v>
       </c>
       <c r="B333" s="2">
-        <v>321289.19987816666</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520480.73439571942</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="6">
         <v>37865</v>
       </c>
       <c r="B334" s="2">
-        <v>322025.36630452843</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520944.57032122539</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="6">
         <v>37895</v>
       </c>
       <c r="B335" s="2">
-        <v>321442.75804556359</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520240.90461733588</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="6">
         <v>37926</v>
       </c>
       <c r="B336" s="2">
-        <v>319721.31259595643</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518538.29808425414</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="6">
         <v>37956</v>
       </c>
       <c r="B337" s="2">
-        <v>317952.01191094774</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+        <v>516784.69590558385</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="6">
         <v>37987</v>
       </c>
       <c r="B338" s="2">
-        <v>316192.50233085023</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515037.02409042267</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="6">
         <v>38018</v>
       </c>
       <c r="B339" s="2">
-        <v>314694.01560325676</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+        <v>513538.65676131169</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="6">
         <v>38047</v>
       </c>
       <c r="B340" s="2">
-        <v>313680.52459784847</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512491.15865169256</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="6">
         <v>38078</v>
       </c>
       <c r="B341" s="2">
-        <v>313789.51884007762</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+        <v>512507.45985752856</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="6">
         <v>38108</v>
       </c>
       <c r="B342" s="2">
-        <v>316707.09875975747</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+        <v>515180.30286121089</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="6">
         <v>38139</v>
       </c>
       <c r="B343" s="2">
-        <v>321656.56686829362</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>519785.68317209126</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="6">
         <v>38169</v>
       </c>
       <c r="B344" s="2">
-        <v>326420.37232097279</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524222.97204315686</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="6">
         <v>38200</v>
       </c>
       <c r="B345" s="2">
-        <v>331155.00120063243</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528642.59054894384</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="6">
         <v>38231</v>
       </c>
       <c r="B346" s="2">
-        <v>332497.96408487868</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529862.84109408665</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="6">
         <v>38261</v>
       </c>
       <c r="B347" s="2">
-        <v>331263.81727475068</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528644.51483933919</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="6">
         <v>38292</v>
       </c>
       <c r="B348" s="2">
-        <v>329489.77640248352</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+        <v>526914.40558292589</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="6">
         <v>38322</v>
       </c>
       <c r="B349" s="2">
-        <v>327666.41817103216</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525132.47693268594</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="6">
         <v>38353</v>
       </c>
       <c r="B350" s="2">
-        <v>325853.15019268822</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523356.57444092812</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="6">
         <v>38384</v>
       </c>
       <c r="B351" s="2">
-        <v>324224.42310305027</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521757.95805531123</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="6">
         <v>38412</v>
       </c>
       <c r="B352" s="2">
-        <v>322915.08889750019</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520377.5775085183</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="6">
         <v>38443</v>
       </c>
       <c r="B353" s="2">
-        <v>323524.90686168103</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520527.51548724505</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="6">
         <v>38473</v>
       </c>
       <c r="B354" s="2">
-        <v>324925.98505675333</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521295.32386884897</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="6">
         <v>38504</v>
       </c>
       <c r="B355" s="2">
-        <v>329205.82405484346</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+        <v>524358.05205327959</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="6">
         <v>38534</v>
       </c>
       <c r="B356" s="2">
-        <v>334169.81367520645</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527960.22431397252</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="6">
         <v>38565</v>
       </c>
       <c r="B357" s="2">
-        <v>336939.26077949518</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529833.53542889934</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="6">
         <v>38596</v>
       </c>
       <c r="B358" s="2">
-        <v>337993.87515536335</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+        <v>530364.37415284745</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="6">
         <v>38626</v>
       </c>
       <c r="B359" s="2">
-        <v>336840.00090955751</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529138.40007674962</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="6">
         <v>38657</v>
       </c>
       <c r="B360" s="2">
-        <v>335036.09750125848</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+        <v>527406.6744687109</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="6">
         <v>38687</v>
       </c>
       <c r="B361" s="2">
-        <v>333182.04657172057</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525623.08105466515</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="6">
         <v>38718</v>
       </c>
       <c r="B362" s="2">
-        <v>331338.25574512366</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523845.51942902978</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="6">
         <v>38749</v>
       </c>
       <c r="B363" s="2">
-        <v>329682.11219504185</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522245.40953877795</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="6">
         <v>38777</v>
       </c>
       <c r="B364" s="2">
-        <v>329001.03487121232</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521505.0747783882</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="6">
         <v>38808</v>
       </c>
       <c r="B365" s="2">
-        <v>330557.15489371557</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522775.26396865718</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="6">
         <v>38838</v>
       </c>
       <c r="B366" s="2">
-        <v>333361.38019753079</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+        <v>525164.47962087102</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="6">
         <v>38869</v>
       </c>
       <c r="B367" s="2">
-        <v>338779.5591703523</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529908.66501405393</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="6">
         <v>38899</v>
       </c>
       <c r="B368" s="2">
-        <v>343044.36990468076</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533625.01146661525</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="6">
         <v>38930</v>
       </c>
       <c r="B369" s="2">
-        <v>346931.79053351289</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537011.37190150353</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="6">
         <v>38961</v>
       </c>
       <c r="B370" s="2">
-        <v>347617.21597128839</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537535.78394533042</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="6">
         <v>38991</v>
       </c>
       <c r="B371" s="2">
-        <v>346834.22175479424</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536741.34790138877</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="6">
         <v>39022</v>
       </c>
       <c r="B372" s="2">
-        <v>344976.79557901708</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534984.73991958424</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="6">
         <v>39052</v>
       </c>
       <c r="B373" s="2">
-        <v>343067.7339785432</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533175.51886697474</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="6">
         <v>39083</v>
       </c>
       <c r="B374" s="2">
-        <v>341169.23690368701</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531372.41627078643</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="6">
         <v>39114</v>
       </c>
       <c r="B375" s="2">
-        <v>339463.95469921071</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529749.31513286196</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="6">
         <v>39142</v>
       </c>
       <c r="B376" s="2">
-        <v>338475.03161153838</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>528669.06227468746</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="6">
         <v>39173</v>
       </c>
       <c r="B377" s="2">
-        <v>340057.33224729501</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>529653.15439836145</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="6">
         <v>39203</v>
       </c>
       <c r="B378" s="2">
-        <v>342304.6219592421</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>531163.21467619448</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="6">
         <v>39234</v>
       </c>
       <c r="B379" s="2">
-        <v>346628.15339657431</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534347.16394662717</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="6">
         <v>39264</v>
       </c>
       <c r="B380" s="2">
-        <v>351015.18517267657</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537581.1523210688</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="6">
         <v>39295</v>
       </c>
       <c r="B381" s="2">
-        <v>354563.45659078128</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540153.022110597</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="6">
         <v>39326</v>
       </c>
       <c r="B382" s="2">
-        <v>356439.26806267857</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+        <v>541403.07802818774</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="6">
         <v>39356</v>
       </c>
       <c r="B383" s="2">
-        <v>356078.3449965858</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540860.60718509415</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="6">
         <v>39387</v>
       </c>
       <c r="B384" s="2">
-        <v>354171.41310480825</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+        <v>539090.51799159404</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="6">
         <v>39417</v>
       </c>
       <c r="B385" s="2">
-        <v>352211.46955669473</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+        <v>537267.41194457072</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="6">
         <v>39448</v>
       </c>
       <c r="B386" s="2">
-        <v>350262.37210899941</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+        <v>535450.47131049342</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="6">
         <v>39479</v>
       </c>
       <c r="B387" s="2">
-        <v>348449.11308700423</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>533756.50079205318</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="6">
         <v>39508</v>
       </c>
       <c r="B388" s="2">
-        <v>347596.84791921038</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>532888.93687014247</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="6">
         <v>39539</v>
       </c>
       <c r="B389" s="2">
-        <v>349222.26212831662</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>534183.0109603809</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="6">
         <v>39569</v>
       </c>
       <c r="B390" s="2">
-        <v>352481.75575142563</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>536900.20979861589</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="6">
         <v>39600</v>
       </c>
       <c r="B391" s="2">
-        <v>357026.68760399806</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540747.65519717894</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="6">
         <v>39630</v>
       </c>
       <c r="B392" s="2">
-        <v>361665.5885285376</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544682.1276453539</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="6">
         <v>39661</v>
       </c>
       <c r="B393" s="2">
-        <v>365591.11697660061</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548004.11665064143</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="6">
         <v>39692</v>
       </c>
       <c r="B394" s="2">
-        <v>367359.54883114027</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549457.29214201903</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="6">
         <v>39722</v>
       </c>
       <c r="B395" s="2">
-        <v>367192.57717049326</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549224.8883346545</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="6">
         <v>39753</v>
       </c>
       <c r="B396" s="2">
-        <v>365226.12443426432</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547427.42513114598</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="6">
         <v>39783</v>
       </c>
       <c r="B397" s="2">
-        <v>363205.00539500517</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>545576.12518103526</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="6">
         <v>39814</v>
       </c>
       <c r="B398" s="2">
-        <v>361195.0709942414</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+        <v>543731.08599052113</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="6">
         <v>39845</v>
       </c>
       <c r="B399" s="2">
-        <v>359389.69272361812</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542070.23473559564</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="6">
         <v>39873</v>
       </c>
       <c r="B400" s="2">
-        <v>358260.23764072941</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540997.49464437529</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="6">
         <v>39904</v>
       </c>
       <c r="B401" s="2">
-        <v>359506.98968949856</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>542027.95546759514</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="6">
         <v>39934</v>
       </c>
       <c r="B402" s="2">
-        <v>362378.97793005116</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>544496.76338747609</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="6">
         <v>39965</v>
       </c>
       <c r="B403" s="2">
-        <v>366402.35269197921</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>547992.29151682172</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="6">
         <v>39995</v>
       </c>
       <c r="B404" s="2">
-        <v>371558.18241177604</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552495.63958492596</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="6">
         <v>40026</v>
       </c>
       <c r="B405" s="2">
-        <v>376482.05956647842</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556803.75344907492</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="6">
         <v>40057</v>
       </c>
       <c r="B406" s="2">
-        <v>378114.02964206156</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558209.71115336579</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="6">
         <v>40087</v>
       </c>
       <c r="B407" s="2">
-        <v>378199.57409805531</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558249.21988264157</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="6">
         <v>40118</v>
       </c>
       <c r="B408" s="2">
-        <v>376174.17480197852</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556422.22250426537</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="6">
         <v>40148</v>
       </c>
       <c r="B409" s="2">
-        <v>374092.47052097297</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554540.50378599716</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="6">
         <v>40179</v>
       </c>
       <c r="B410" s="2">
-        <v>372022.28615016816</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552665.14869806485</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="6">
         <v>40210</v>
       </c>
       <c r="B411" s="2">
-        <v>370162.78970201808</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550977.00794352882</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="6">
         <v>40238</v>
       </c>
       <c r="B412" s="2">
-        <v>368671.58489856252</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549707.73678747413</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="6">
         <v>40269</v>
       </c>
       <c r="B413" s="2">
-        <v>368635.67660133383</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549975.17462530523</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="6">
         <v>40299</v>
       </c>
       <c r="B414" s="2">
-        <v>370976.09616483125</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552784.94729403662</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="6">
         <v>40330</v>
       </c>
       <c r="B415" s="2">
-        <v>375597.34807087405</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558020.1897856323</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="6">
         <v>40360</v>
       </c>
       <c r="B416" s="2">
-        <v>381345.62577399128</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+        <v>564476.73798326368</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="6">
         <v>40391</v>
       </c>
       <c r="B417" s="2">
-        <v>385059.80606622761</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568776.93319793814</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="6">
         <v>40422</v>
       </c>
       <c r="B418" s="2">
-        <v>387116.53896070726</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>571306.36295183911</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="6">
         <v>40452</v>
       </c>
       <c r="B419" s="2">
-        <v>386306.7131471883</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>570794.73482155032</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="6">
         <v>40483</v>
       </c>
       <c r="B420" s="2">
-        <v>384237.89710807981</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>568926.67939582281</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="6">
         <v>40513</v>
       </c>
       <c r="B421" s="2">
-        <v>382111.56912249833</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>567002.67287947086</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="6">
         <v>40544</v>
       </c>
       <c r="B422" s="2">
-        <v>379997.00798952638</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+        <v>565085.17300309381</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="6">
         <v>40575</v>
       </c>
       <c r="B423" s="2">
-        <v>378097.65111503273</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563359.09472119412</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="6">
         <v>40603</v>
       </c>
       <c r="B424" s="2">
-        <v>376612.52360010368</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>562115.82155697187</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="6">
         <v>40634</v>
       </c>
       <c r="B425" s="2">
-        <v>377693.14480722067</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>563652.64062587149</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="6">
         <v>40664</v>
       </c>
       <c r="B426" s="2">
-        <v>380213.43440703454</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>566772.06251863472</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="6">
         <v>40695</v>
       </c>
       <c r="B427" s="2">
-        <v>385137.69624860183</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+        <v>572504.44632849551</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="6">
         <v>40725</v>
       </c>
       <c r="B428" s="2">
-        <v>390942.32465104474</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579218.9526747237</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="6">
         <v>40756</v>
       </c>
       <c r="B429" s="2">
-        <v>396647.06896313612</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585836.88748109515</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="6">
         <v>40787</v>
       </c>
       <c r="B430" s="2">
-        <v>397916.35225269548</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587618.68089197285</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="6">
         <v>40817</v>
       </c>
       <c r="B431" s="2">
-        <v>397358.00173361326</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>587423.15599311003</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="6">
         <v>40848</v>
       </c>
       <c r="B432" s="2">
-        <v>395230.0019363605</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>585500.68028195272</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="6">
         <v>40878</v>
       </c>
       <c r="B433" s="2">
-        <v>393042.84491675423</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>583520.62351016048</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="6">
         <v>40909</v>
       </c>
       <c r="B434" s="2">
-        <v>390867.79137058108</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581547.26293010893</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="6">
         <v>40940</v>
       </c>
       <c r="B435" s="2">
-        <v>388844.32380584517</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>579707.45893092267</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="6">
         <v>40969</v>
       </c>
       <c r="B436" s="2">
-        <v>387661.3057407536</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>578823.10564292257</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="6">
         <v>41000</v>
       </c>
       <c r="B437" s="2">
-        <v>390034.75348461169</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>581871.15020272904</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="6">
         <v>41030</v>
       </c>
       <c r="B438" s="2">
-        <v>393593.03303294041</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>586253.2705604434</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="6">
         <v>41061</v>
       </c>
       <c r="B439" s="2">
-        <v>399054.87102194404</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>592742.76320089982</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="6">
         <v>41091</v>
       </c>
       <c r="B440" s="2">
-        <v>404147.87382482726</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>598848.2818907568</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="6">
         <v>41122</v>
       </c>
       <c r="B441" s="2">
-        <v>409370.82569951325</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>605108.80180631136</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="6">
         <v>41153</v>
       </c>
       <c r="B442" s="2">
-        <v>410825.78537909454</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>607179.73541176924</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="6">
         <v>41183</v>
       </c>
       <c r="B443" s="2">
-        <v>410324.103720707</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>607094.39816798724</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="6">
         <v>41214</v>
       </c>
       <c r="B444" s="2">
-        <v>408126.66562781326</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>605107.54384848999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="6">
         <v>41244</v>
       </c>
       <c r="B445" s="2">
-        <v>405868.13996619073</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>603061.18023148645</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="6">
         <v>41275</v>
       </c>
       <c r="B446" s="2">
-        <v>403622.11272379395</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+        <v>601021.73704390996</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="6">
         <v>41306</v>
       </c>
       <c r="B447" s="2">
-        <v>401604.66937981709</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>599185.88889778382</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="6">
         <v>41334</v>
       </c>
       <c r="B448" s="2">
-        <v>400333.98382036679</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>598202.98547666415</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="6">
         <v>41365</v>
       </c>
       <c r="B449" s="2">
-        <v>401663.22908516118</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>600052.99990821071</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="6">
         <v>41395</v>
       </c>
       <c r="B450" s="2">
-        <v>405493.43000483379</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+        <v>604659.79678232246</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="6">
         <v>41426</v>
       </c>
       <c r="B451" s="2">
-        <v>410311.47398564074</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610343.86249794019</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="6">
         <v>41456</v>
       </c>
       <c r="B452" s="2">
-        <v>414677.59557416232</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615555.87461812526</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="6">
         <v>41487</v>
       </c>
       <c r="B453" s="2">
-        <v>417975.94845712569</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>619606.11828137981</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="6">
         <v>41518</v>
       </c>
       <c r="B454" s="2">
-        <v>418199.23889570526</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620277.17063951411</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="6">
         <v>41548</v>
       </c>
       <c r="B455" s="2">
-        <v>416486.23624132044</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>618838.6919323809</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="6">
         <v>41579</v>
       </c>
       <c r="B456" s="2">
-        <v>414300.42698083364</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>616862.33042822464</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="6">
         <v>41609</v>
       </c>
       <c r="B457" s="2">
-        <v>412007.73643948417</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+        <v>614776.21426173311</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="6">
         <v>41640</v>
       </c>
       <c r="B458" s="2">
-        <v>409727.73338184482</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+        <v>612697.15296055819</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="6">
         <v>41671</v>
       </c>
       <c r="B459" s="2">
-        <v>407689.80449583317</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>610836.73153375101</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="6">
         <v>41699</v>
       </c>
       <c r="B460" s="2">
-        <v>406137.88150236238</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+        <v>609549.39321179967</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="6">
         <v>41730</v>
       </c>
       <c r="B461" s="2">
-        <v>407466.15859975002</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>611427.01898431731</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="6">
         <v>41760</v>
       </c>
       <c r="B462" s="2">
-        <v>410429.67577094765</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+        <v>615127.64622738957</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="6">
         <v>41791</v>
       </c>
       <c r="B463" s="2">
-        <v>414742.47753588855</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>620311.49105268333</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="6">
         <v>41821</v>
       </c>
       <c r="B464" s="2">
-        <v>419768.74504499492</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626306.72967552464</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="6">
         <v>41852</v>
       </c>
       <c r="B465" s="2">
-        <v>423535.22845433652</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630919.88488899171</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="6">
         <v>41883</v>
       </c>
       <c r="B466" s="2">
-        <v>424892.41773729783</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632862.51868381363</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="6">
         <v>41913</v>
       </c>
       <c r="B467" s="2">
-        <v>423743.65901615325</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>632051.57784469053</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="6">
         <v>41944</v>
       </c>
       <c r="B468" s="2">
-        <v>421474.35421660368</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629983.0454856779</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="6">
         <v>41974</v>
       </c>
       <c r="B469" s="2">
-        <v>419141.9639934614</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627852.55744811054</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="6">
         <v>42005</v>
       </c>
       <c r="B470" s="2">
-        <v>416822.48094746663</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625729.27433345455</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="6">
         <v>42036</v>
       </c>
       <c r="B471" s="2">
-        <v>414740.1731658561</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+        <v>623817.95589443773</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="6">
         <v>42064</v>
       </c>
       <c r="B472" s="2">
-        <v>413361.58402604237</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>622257.49870315369</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="6">
         <v>42095</v>
       </c>
       <c r="B473" s="2">
-        <v>414724.69535805681</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>623533.55327191844</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="6">
         <v>42125</v>
       </c>
       <c r="B474" s="2">
-        <v>417765.6086897584</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625219.97650835593</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="6">
         <v>42156</v>
       </c>
       <c r="B475" s="2">
-        <v>422913.50720467936</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626586.00915987475</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" s="6">
         <v>42186</v>
       </c>
       <c r="B476" s="2">
-        <v>428362.61385620176</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630927.86268895783</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" s="6">
         <v>42217</v>
       </c>
       <c r="B477" s="2">
-        <v>432845.95722829824</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634297.66370789416</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" s="6">
         <v>42248</v>
       </c>
       <c r="B478" s="2">
-        <v>434286.17741118505</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+        <v>636323.48282997927</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" s="6">
         <v>42278</v>
       </c>
       <c r="B479" s="2">
-        <v>433446.81273366109</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635707.79595468903</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" s="6">
         <v>42309</v>
       </c>
       <c r="B480" s="2">
-        <v>431130.50659654971</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633627.29779140151</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" s="6">
         <v>42339</v>
       </c>
       <c r="B481" s="2">
-        <v>428744.68034538144</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631484.48555558966</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" s="6">
         <v>42370</v>
       </c>
       <c r="B482" s="2">
-        <v>426372.05672239914</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629348.91992088535</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" s="6">
         <v>42401</v>
       </c>
       <c r="B483" s="2">
-        <v>424406.6013358034</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627563.98744657286</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" s="6">
         <v>42430</v>
       </c>
       <c r="B484" s="2">
-        <v>422760.59948449244</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626040.52359525638</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" s="6">
         <v>42461</v>
       </c>
       <c r="B485" s="2">
-        <v>423654.35110538534</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626683.07007621892</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" s="6">
         <v>42491</v>
       </c>
       <c r="B486" s="2">
-        <v>423248.49047510006</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+        <v>626216.01765358832</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" s="6">
         <v>42522</v>
       </c>
       <c r="B487" s="2">
-        <v>425177.74614419119</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627742.78350969485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" s="6">
         <v>42552</v>
       </c>
       <c r="B488" s="2">
-        <v>428891.01604419155</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+        <v>630790.09404699609</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" s="6">
         <v>42583</v>
       </c>
       <c r="B489" s="2">
-        <v>432006.37978651078</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633335.01373810659</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" s="6">
         <v>42614</v>
       </c>
       <c r="B490" s="2">
-        <v>434207.17240584106</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+        <v>635109.88842329907</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" s="6">
         <v>42644</v>
       </c>
       <c r="B491" s="2">
-        <v>432663.97242229956</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633694.74943454878</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" s="6">
         <v>42675</v>
       </c>
       <c r="B492" s="2">
-        <v>430346.89602877962</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631620.83942326193</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" s="6">
         <v>42705</v>
       </c>
       <c r="B493" s="2">
-        <v>427965.40618766507</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629484.81266458612</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" s="6">
         <v>42736</v>
       </c>
       <c r="B494" s="2">
-        <v>425597.09523529274</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+        <v>627356.00955976872</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" s="6">
         <v>42767</v>
       </c>
       <c r="B495" s="2">
-        <v>423683.76029710629</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625600.54789618612</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" s="6">
         <v>42795</v>
       </c>
       <c r="B496" s="2">
-        <v>422373.00117172301</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+        <v>624262.03999301733</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" s="6">
         <v>42826</v>
       </c>
       <c r="B497" s="2">
-        <v>423306.08821717114</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>624620.74710570008</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" s="6">
         <v>42856</v>
       </c>
       <c r="B498" s="2">
-        <v>425039.41616152506</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+        <v>625572.24691013759</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" s="6">
         <v>42887</v>
       </c>
       <c r="B499" s="2">
-        <v>429441.93889087863</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>628545.40351178462</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" s="6">
         <v>42917</v>
       </c>
       <c r="B500" s="2">
-        <v>434168.1679609883</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631758.94353000936</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" s="6">
         <v>42948</v>
       </c>
       <c r="B501" s="2">
-        <v>437654.66945909214</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634049.36301762646</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" s="6">
         <v>42979</v>
       </c>
       <c r="B502" s="2">
-        <v>439056.25498378847</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+        <v>634789.73210846272</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" s="6">
         <v>43009</v>
       </c>
       <c r="B503" s="2">
-        <v>437980.35929489561</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633660.64435160637</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" s="6">
         <v>43040</v>
       </c>
       <c r="B504" s="2">
-        <v>435634.81167357188</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+        <v>631586.84595695033</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" s="6">
         <v>43070</v>
       </c>
       <c r="B505" s="2">
-        <v>433224.05912020133</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+        <v>629450.9341579926</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" s="6">
         <v>43101</v>
       </c>
-      <c r="B506" s="7">
-        <v>425597.09523529274</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="2">
+        <v>627322.24562412046</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" s="6">
         <v>43132</v>
       </c>
-      <c r="B507" s="7">
-        <v>423683.76029710629</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="2">
+        <v>625571.66147902177</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" s="6">
         <v>43160</v>
       </c>
-      <c r="B508" s="7">
-        <v>422373.00117172301</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="2">
+        <v>624229.54180411738</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" s="6">
         <v>43191</v>
       </c>
-      <c r="B509" s="7">
-        <v>423306.08821717114</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="2">
+        <v>624623.36555554217</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" s="6">
         <v>43221</v>
       </c>
-      <c r="B510" s="7">
-        <v>425039.41616152506</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="2">
+        <v>626873.83494632039</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" s="6">
         <v>43252</v>
       </c>
-      <c r="B511" s="7">
-        <v>429441.93889087863</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="2">
+        <v>630009.18390494015</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" s="6">
         <v>43282</v>
       </c>
-      <c r="B512" s="7">
-        <v>434168.1679609883</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="2">
+        <v>632997.59870420711</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" s="6">
         <v>43313</v>
       </c>
-      <c r="B513" s="7">
-        <v>437654.66945909214</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="2">
+        <v>635992.95429715374</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" s="6">
         <v>43344</v>
       </c>
-      <c r="B514" s="7">
-        <v>439056.25498378847</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="2">
+        <v>637267.84720632131</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" s="6">
         <v>43374</v>
       </c>
-      <c r="B515" s="7">
-        <v>437980.35929489561</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="2">
+        <v>635959.96261431451</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" s="6">
         <v>43405</v>
       </c>
-      <c r="B516" s="7">
-        <v>435634.81167357188</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="2">
+        <v>633878.63917835371</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" s="6">
         <v>43435</v>
       </c>
-      <c r="B517" s="7">
-        <v>433224.05912020133</v>
+      <c r="B517" s="2">
+        <v>631734.97695170157</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B518" s="2">
+        <v>629598.56420067127</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B519" s="2">
+        <v>627832.26455968607</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B520" s="2">
+        <v>626139.03482849337</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B521" s="2">
+        <v>626468.31820687244</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B522" s="2">
+        <v>627424.59896391747</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="6">
+        <v>43617</v>
+      </c>
+      <c r="B523" s="2">
+        <v>629708.46784251963</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B524" s="2">
+        <v>633303.245320366</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B525" s="2">
+        <v>636188.72944664909</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="6">
+        <v>43709</v>
+      </c>
+      <c r="B526" s="2">
+        <v>637633.82731378358</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="6">
+        <v>43739</v>
+      </c>
+      <c r="B527" s="2">
+        <v>636252.78123893589</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="6">
+        <v>43770</v>
+      </c>
+      <c r="B528" s="2">
+        <v>634170.49948751216</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="6">
+        <v>43800</v>
+      </c>
+      <c r="B529" s="2">
+        <v>632025.85024239693</v>
       </c>
     </row>
   </sheetData>
